--- a/warehouse/templates/export_file/peer_pallet_template.xlsx
+++ b/warehouse/templates/export_file/peer_pallet_template.xlsx
@@ -32,7 +32,7 @@
     <author>V</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -79,7 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -97,7 +97,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>接货仓库</t>
+  </si>
   <si>
     <t>收货地址</t>
   </si>
@@ -111,10 +114,34 @@
     <t>板数</t>
   </si>
   <si>
-    <t>FBA号码</t>
+    <r>
+      <t>FBA</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号码</t>
+    </r>
   </si>
   <si>
-    <t>PO号码</t>
+    <r>
+      <t>PO</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号码</t>
+    </r>
   </si>
   <si>
     <t>重量(kg)</t>
@@ -145,13 +172,20 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -169,7 +203,7 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -180,6 +214,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -322,6 +364,11 @@
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -329,13 +376,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -346,6 +388,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -674,137 +722,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -816,16 +864,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -910,13 +964,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>3</xdr:col>
+          <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
+          <xdr:col>5</xdr:col>
           <xdr:colOff>47625</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -934,7 +988,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4552950" y="390525"/>
+              <a:off x="5975350" y="390525"/>
               <a:ext cx="1600200" cy="390525"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -951,13 +1005,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>3</xdr:col>
+          <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
+          <xdr:col>5</xdr:col>
           <xdr:colOff>47625</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -975,7 +1029,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4552950" y="390525"/>
+              <a:off x="5975350" y="390525"/>
               <a:ext cx="1600200" cy="390525"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -992,13 +1046,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>3</xdr:col>
+          <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
+          <xdr:col>5</xdr:col>
           <xdr:colOff>47625</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -1016,7 +1070,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4552950" y="390525"/>
+              <a:off x="5975350" y="390525"/>
               <a:ext cx="1600200" cy="390525"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1033,13 +1087,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>3</xdr:col>
+          <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>4</xdr:col>
+          <xdr:col>5</xdr:col>
           <xdr:colOff>47625</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
@@ -1057,7 +1111,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4552950" y="390525"/>
+              <a:off x="5975350" y="390525"/>
               <a:ext cx="1600200" cy="390525"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1331,77 +1385,85 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.425" defaultRowHeight="30.75" customHeight="1" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="23" style="1" customWidth="1"/>
-    <col min="2" max="3" width="18.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.375" style="1" customWidth="1"/>
-    <col min="5" max="6" width="29.5" style="1" customWidth="1"/>
-    <col min="7" max="8" width="19.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5833333333333" style="1" customWidth="1"/>
-    <col min="11" max="11" width="23.1666666666667" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.425" style="1"/>
+    <col min="1" max="1" width="18.6666666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23" style="1" customWidth="1"/>
+    <col min="3" max="4" width="18.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="29.5" style="1" customWidth="1"/>
+    <col min="8" max="9" width="19.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5833333333333" style="1" customWidth="1"/>
+    <col min="12" max="13" width="13.1666666666667" customWidth="1"/>
+    <col min="14" max="16384" width="8.425" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:12">
+    <row r="1" customHeight="1" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="9" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" customHeight="1" spans="5:6">
-      <c r="E2" s="7"/>
+    <row r="2" customHeight="1" spans="6:7">
       <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
     </row>
-    <row r="3" customHeight="1" spans="5:6">
-      <c r="E3" s="7"/>
+    <row r="3" customHeight="1" spans="6:7">
       <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
     </row>
-    <row r="4" customHeight="1" spans="5:6">
-      <c r="E4" s="7"/>
+    <row r="4" customHeight="1" spans="6:7">
       <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="date" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="日期格式：YYYY-MM-DD" prompt="例 2025-08-21" sqref="L2:M100">
+      <formula1>36526</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
   <drawing r:id="rId2"/>
@@ -1413,13 +1475,13 @@
           <controlPr defaultSize="0">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
+                <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
+                <xdr:col>5</xdr:col>
                 <xdr:colOff>47625</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
@@ -1438,13 +1500,13 @@
           <controlPr defaultSize="0">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
+                <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
+                <xdr:col>5</xdr:col>
                 <xdr:colOff>47625</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
@@ -1463,13 +1525,13 @@
           <controlPr defaultSize="0">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
+                <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
+                <xdr:col>5</xdr:col>
                 <xdr:colOff>47625</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
@@ -1488,13 +1550,13 @@
           <controlPr defaultSize="0">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
+                <xdr:col>4</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
+                <xdr:col>5</xdr:col>
                 <xdr:colOff>47625</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
